--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Calca</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.63636</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.08088833333333</v>
+        <v>40.688829</v>
       </c>
       <c r="N2">
-        <v>162.242665</v>
+        <v>122.066487</v>
       </c>
       <c r="O2">
-        <v>0.5501595266871953</v>
+        <v>0.5299680863154126</v>
       </c>
       <c r="P2">
-        <v>0.5736166769323061</v>
+        <v>0.5381766555421038</v>
       </c>
       <c r="Q2">
-        <v>11.47163803326667</v>
+        <v>8.630914407480001</v>
       </c>
       <c r="R2">
-        <v>103.2447422994</v>
+        <v>77.67822966732</v>
       </c>
       <c r="S2">
-        <v>0.5501595266871953</v>
+        <v>0.1084104674397554</v>
       </c>
       <c r="T2">
-        <v>0.5736166769323061</v>
+        <v>0.149811658949845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.63636</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>42.66566</v>
       </c>
       <c r="O3">
-        <v>0.1446778460610025</v>
+        <v>0.1852387066860051</v>
       </c>
       <c r="P3">
-        <v>0.1508464749905558</v>
+        <v>0.1881078318023236</v>
       </c>
       <c r="Q3">
         <v>3.016746599733334</v>
@@ -638,10 +638,10 @@
         <v>27.1507193976</v>
       </c>
       <c r="S3">
-        <v>0.1446778460610025</v>
+        <v>0.03789249824340137</v>
       </c>
       <c r="T3">
-        <v>0.1508464749905558</v>
+        <v>0.05236337558227627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.63636</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.863198666666666</v>
+        <v>10.24048933333333</v>
       </c>
       <c r="N4">
-        <v>23.589596</v>
+        <v>30.721468</v>
       </c>
       <c r="O4">
-        <v>0.07999154211441334</v>
+        <v>0.1333813891503258</v>
       </c>
       <c r="P4">
-        <v>0.08340214127828596</v>
+        <v>0.1354473066926532</v>
       </c>
       <c r="Q4">
-        <v>1.667941701173333</v>
+        <v>2.172212597386667</v>
       </c>
       <c r="R4">
-        <v>15.01147531056</v>
+        <v>19.54991337648</v>
       </c>
       <c r="S4">
-        <v>0.07999154211441334</v>
+        <v>0.02728454621877902</v>
       </c>
       <c r="T4">
-        <v>0.08340214127828596</v>
+        <v>0.03770432163296857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.63636</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.059517</v>
+        <v>3.5130905</v>
       </c>
       <c r="N5">
-        <v>24.119034</v>
+        <v>7.026181</v>
       </c>
       <c r="O5">
-        <v>0.1226802733694528</v>
+        <v>0.04575766604976163</v>
       </c>
       <c r="P5">
-        <v>0.08527399456793505</v>
+        <v>0.03097759823147425</v>
       </c>
       <c r="Q5">
-        <v>2.55806474604</v>
+        <v>0.7451967568600001</v>
       </c>
       <c r="R5">
-        <v>15.34838847624</v>
+        <v>4.471180541160001</v>
       </c>
       <c r="S5">
-        <v>0.1226802733694528</v>
+        <v>0.009360205064224487</v>
       </c>
       <c r="T5">
-        <v>0.08527399456793505</v>
+        <v>0.008623200827364523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.63636</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.07488533333333</v>
+        <v>8.111703</v>
       </c>
       <c r="N6">
-        <v>30.224656</v>
+        <v>24.335109</v>
       </c>
       <c r="O6">
-        <v>0.102490811767936</v>
+        <v>0.1056541517984947</v>
       </c>
       <c r="P6">
-        <v>0.1068607122309171</v>
+        <v>0.1072906077314452</v>
       </c>
       <c r="Q6">
-        <v>2.137084676906667</v>
+        <v>1.72065444036</v>
       </c>
       <c r="R6">
-        <v>19.23376209216</v>
+        <v>15.48588996324</v>
       </c>
       <c r="S6">
-        <v>0.102490811767936</v>
+        <v>0.02161265230715945</v>
       </c>
       <c r="T6">
-        <v>0.1068607122309171</v>
+        <v>0.02986637151288956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.649671</v>
+      </c>
+      <c r="I7">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J7">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>40.688829</v>
+      </c>
+      <c r="N7">
+        <v>122.066487</v>
+      </c>
+      <c r="O7">
+        <v>0.5299680863154126</v>
+      </c>
+      <c r="P7">
+        <v>0.5381766555421038</v>
+      </c>
+      <c r="Q7">
+        <v>33.5615906126295</v>
+      </c>
+      <c r="R7">
+        <v>201.369543675777</v>
+      </c>
+      <c r="S7">
+        <v>0.4215576188756571</v>
+      </c>
+      <c r="T7">
+        <v>0.3883649965922588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.649671</v>
+      </c>
+      <c r="I8">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J8">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.22188666666667</v>
+      </c>
+      <c r="N8">
+        <v>42.66566</v>
+      </c>
+      <c r="O8">
+        <v>0.1852387066860051</v>
+      </c>
+      <c r="P8">
+        <v>0.1881078318023236</v>
+      </c>
+      <c r="Q8">
+        <v>11.73071699964333</v>
+      </c>
+      <c r="R8">
+        <v>70.38430199786001</v>
+      </c>
+      <c r="S8">
+        <v>0.1473462084426037</v>
+      </c>
+      <c r="T8">
+        <v>0.1357444562200473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.649671</v>
+      </c>
+      <c r="I9">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J9">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.24048933333333</v>
+      </c>
+      <c r="N9">
+        <v>30.721468</v>
+      </c>
+      <c r="O9">
+        <v>0.1333813891503258</v>
+      </c>
+      <c r="P9">
+        <v>0.1354473066926532</v>
+      </c>
+      <c r="Q9">
+        <v>8.446719139504669</v>
+      </c>
+      <c r="R9">
+        <v>50.68031483702801</v>
+      </c>
+      <c r="S9">
+        <v>0.1060968429315468</v>
+      </c>
+      <c r="T9">
+        <v>0.09774298505968462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.649671</v>
+      </c>
+      <c r="I10">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J10">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.5130905</v>
+      </c>
+      <c r="N10">
+        <v>7.026181</v>
+      </c>
+      <c r="O10">
+        <v>0.04575766604976163</v>
+      </c>
+      <c r="P10">
+        <v>0.03097759823147425</v>
+      </c>
+      <c r="Q10">
+        <v>2.89772175911275</v>
+      </c>
+      <c r="R10">
+        <v>11.590887036451</v>
+      </c>
+      <c r="S10">
+        <v>0.03639746098553714</v>
+      </c>
+      <c r="T10">
+        <v>0.02235439740410972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.649671</v>
+      </c>
+      <c r="I11">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J11">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.111703</v>
+      </c>
+      <c r="N11">
+        <v>24.335109</v>
+      </c>
+      <c r="O11">
+        <v>0.1056541517984947</v>
+      </c>
+      <c r="P11">
+        <v>0.1072906077314452</v>
+      </c>
+      <c r="Q11">
+        <v>6.690820599856501</v>
+      </c>
+      <c r="R11">
+        <v>40.144923599139</v>
+      </c>
+      <c r="S11">
+        <v>0.0840414994913352</v>
+      </c>
+      <c r="T11">
+        <v>0.07742423621855558</v>
       </c>
     </row>
   </sheetData>
